--- a/DATA_goal/Junction_Flooding_117.xlsx
+++ b/DATA_goal/Junction_Flooding_117.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41549.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41549.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.7</v>
+        <v>0.67</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.7</v>
+        <v>0.37</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.4</v>
+        <v>0.24</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.89</v>
+        <v>0.29</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>29.85</v>
+        <v>2.99</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.35</v>
+        <v>0.34</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.95</v>
+        <v>0.2</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.15</v>
+        <v>0.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.57</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41549.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.53</v>
+        <v>0.65</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.33</v>
+        <v>1.43</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>16.81</v>
+        <v>1.68</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.34</v>
+        <v>0.33</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.28</v>
+        <v>0.53</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.13</v>
+        <v>0.41</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>71.31999999999999</v>
+        <v>7.13</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>14.25</v>
+        <v>1.42</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.65</v>
+        <v>0.47</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.25</v>
+        <v>0.52</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.82</v>
+        <v>0.88</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.2</v>
+        <v>0.42</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.46</v>
+        <v>0.45</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>15.57</v>
+        <v>1.56</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41549.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.74</v>
+        <v>2.37</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.76</v>
+        <v>1.78</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>51.78</v>
+        <v>5.18</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>42.77</v>
+        <v>4.28</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.74</v>
+        <v>1.87</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>67.97</v>
+        <v>6.8</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.86</v>
+        <v>2.89</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.75</v>
+        <v>1.28</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.29</v>
+        <v>1.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.6</v>
+        <v>2.06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22</v>
+        <v>2.2</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.53</v>
+        <v>1.85</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.61</v>
+        <v>2.66</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.3</v>
+        <v>1.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>276.32</v>
+        <v>27.63</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>51.99</v>
+        <v>5.2</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>35.37</v>
+        <v>3.54</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.63</v>
+        <v>1.86</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.75</v>
+        <v>0.28</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.24</v>
+        <v>3.42</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.78</v>
+        <v>1.58</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.01</v>
+        <v>2.2</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>62.14</v>
+        <v>6.21</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.37</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41549.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>19.14</v>
+        <v>1.91</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>41.77</v>
+        <v>4.18</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>34.5</v>
+        <v>3.45</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>15.1</v>
+        <v>1.51</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>60.03</v>
+        <v>6</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>23.29</v>
+        <v>2.33</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>10.28</v>
+        <v>1.03</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>15.56</v>
+        <v>1.56</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>16.6</v>
+        <v>1.66</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>17.75</v>
+        <v>1.77</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>14.94</v>
+        <v>1.49</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>21.48</v>
+        <v>2.15</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>221.44</v>
+        <v>22.14</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>42.04</v>
+        <v>4.2</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>13.79</v>
+        <v>1.38</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>28.6</v>
+        <v>2.86</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>15.04</v>
+        <v>1.5</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>29.23</v>
+        <v>2.92</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>12.25</v>
+        <v>1.23</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>10.64</v>
+        <v>1.06</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>17.76</v>
+        <v>1.78</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>54.89</v>
+        <v>5.49</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>17.23</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41549.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AG7" s="4" t="n">
         <v>0.51</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>26.73</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>22.08</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>40.19</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>139.06</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>26.96</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>18.36</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>5.06</v>
-      </c>
       <c r="AH7" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41549.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>22.52</v>
+        <v>2.25</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>16.88</v>
+        <v>1.69</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>49.1</v>
+        <v>4.91</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>40.58</v>
+        <v>4.06</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>17.75</v>
+        <v>1.77</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>67.45</v>
+        <v>6.75</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>27.37</v>
+        <v>2.74</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>18.31</v>
+        <v>1.83</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>19.58</v>
+        <v>1.96</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>20.86</v>
+        <v>2.09</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>17.59</v>
+        <v>1.76</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>25.26</v>
+        <v>2.53</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.53</v>
+        <v>1.45</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>261.54</v>
+        <v>26.15</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>49.35</v>
+        <v>4.94</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>33.53</v>
+        <v>3.35</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>17.63</v>
+        <v>1.76</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>33.19</v>
+        <v>3.32</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>14.4</v>
+        <v>1.44</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.55</v>
+        <v>1.25</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.94</v>
+        <v>1.49</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>20.81</v>
+        <v>2.08</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>61.36</v>
+        <v>6.14</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>20.3</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41549.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>22.82</v>
+        <v>2.28</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>49.73</v>
+        <v>4.97</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>41.11</v>
+        <v>4.11</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>17.98</v>
+        <v>1.8</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>70.47</v>
+        <v>7.05</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>27.72</v>
+        <v>2.77</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>18.55</v>
+        <v>1.85</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>19.84</v>
+        <v>1.98</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>21.12</v>
+        <v>2.11</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.75</v>
+        <v>0.58</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>17.83</v>
+        <v>1.78</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>25.59</v>
+        <v>2.56</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>14.72</v>
+        <v>1.47</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>264.99</v>
+        <v>26.5</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>50.04</v>
+        <v>5</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>16.45</v>
+        <v>1.65</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>33.98</v>
+        <v>3.4</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>17.85</v>
+        <v>1.79</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>34.34</v>
+        <v>3.43</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>12.72</v>
+        <v>1.27</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>21.07</v>
+        <v>2.11</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>64.18000000000001</v>
+        <v>6.42</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>9.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>20.57</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41549.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>20.32</v>
+        <v>2.03</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>15.23</v>
+        <v>1.52</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>44.3</v>
+        <v>4.43</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>36.62</v>
+        <v>3.66</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>16.01</v>
+        <v>1.6</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>63.53</v>
+        <v>6.35</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>24.7</v>
+        <v>2.47</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>17.67</v>
+        <v>1.77</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>18.82</v>
+        <v>1.88</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>22.8</v>
+        <v>2.28</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>13.11</v>
+        <v>1.31</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>235.25</v>
+        <v>23.52</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>44.59</v>
+        <v>4.46</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>14.65</v>
+        <v>1.47</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>30.28</v>
+        <v>3.03</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>15.91</v>
+        <v>1.59</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>30.81</v>
+        <v>3.08</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>11.33</v>
+        <v>1.13</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>18.77</v>
+        <v>1.88</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>57.84</v>
+        <v>5.78</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>18.33</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_117.xlsx
+++ b/DATA_goal/Junction_Flooding_117.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,13 +443,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -462,7 +462,7 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41549.34027777778</v>
+        <v>44798.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.12</v>
+        <v>0.45</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.13</v>
+        <v>0.92</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.59</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.74</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.34</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.57</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0.01</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>5.46</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.05</v>
+        <v>1.11</v>
       </c>
       <c r="V2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="W2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>0.49</v>
+        <v>0.72</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41549.34722222222</v>
+        <v>44798.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.03</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.03</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.01</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.31</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.37</v>
+        <v>0.03</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z3" s="4" t="n">
         <v>0.23</v>
       </c>
-      <c r="P3" s="4" t="n">
+      <c r="AA3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF3" s="4" t="n">
         <v>0.33</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AE3" s="4" t="n">
+      <c r="AG3" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="AF3" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AH3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41549.35416666666</v>
+        <v>44798.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q4" s="4" t="n">
         <v>0.52</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.41</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>7.13</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.42</v>
+        <v>1.74</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.58</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.98</v>
+        <v>1.16</v>
       </c>
       <c r="X4" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AC4" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AB4" s="4" t="n">
+      <c r="AD4" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>0.35</v>
       </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>0.27</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41549.36111111111</v>
+        <v>44798.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.37</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.78</v>
+        <v>0.77</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.18</v>
+        <v>2.16</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.28</v>
+        <v>1.77</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.8</v>
+        <v>2.9</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.89</v>
+        <v>1.21</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.55</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.93</v>
+        <v>0.86</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.06</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.85</v>
+        <v>0.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.66</v>
+        <v>1.12</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.53</v>
+        <v>0.65</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>27.63</v>
+        <v>11.31</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.2</v>
+        <v>2.19</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.71</v>
+        <v>0.72</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.54</v>
+        <v>1.47</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.86</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.42</v>
+        <v>1.48</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.52</v>
+        <v>0.63</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.32</v>
+        <v>0.62</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.58</v>
+        <v>0.65</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.2</v>
+        <v>0.96</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.21</v>
+        <v>2.64</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.14</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41549.36805555555</v>
+        <v>44798.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.91</v>
+        <v>10.01</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.43</v>
+        <v>7.71</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.46</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.18</v>
+        <v>21.67</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.45</v>
+        <v>17.81</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.51</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6</v>
+        <v>30.62</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.33</v>
+        <v>12.13</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.03</v>
+        <v>5.47</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.56</v>
+        <v>8.48</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.66</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.77</v>
+        <v>9.06</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.48</v>
+        <v>2.52</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.49</v>
+        <v>7.79</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.15</v>
+        <v>11.26</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.23</v>
+        <v>6.52</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>22.14</v>
+        <v>113.03</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.2</v>
+        <v>21.92</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.38</v>
+        <v>7.19</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.86</v>
+        <v>14.78</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.5</v>
+        <v>8.07</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.22</v>
+        <v>1.05</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.92</v>
+        <v>15.23</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.23</v>
+        <v>6.31</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.06</v>
+        <v>6.05</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.27</v>
+        <v>6.53</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.78</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.49</v>
+        <v>27.88</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.79</v>
+        <v>4.24</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41549.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41549.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>2.03</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41549.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41549.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>23.52</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41549.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>19.64</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>16.24</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>100.21</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>13.55</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>29.11</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>8.09</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_117.xlsx
+++ b/DATA_goal/Junction_Flooding_117.xlsx
@@ -655,103 +655,103 @@
         <v>44798.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.85</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>5.46</v>
+        <v>54.64</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -759,37 +759,37 @@
         <v>44798.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0</v>
@@ -816,46 +816,46 @@
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="V3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.29</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44798.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.35</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.73</v>
+        <v>17.29</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.16</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.98</v>
+        <v>19.84</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.12</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.89</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.9</v>
+        <v>8.99</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>90.34999999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.4</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.76</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.52</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.25</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.22</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44798.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.16</v>
+        <v>21.59</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.74</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.9</v>
+        <v>29.02</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.1</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.46</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.24</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>11.31</v>
+        <v>113.11</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.17</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.7</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.05</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.64</v>
+        <v>26.42</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.24</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_117.xlsx
+++ b/DATA_goal/Junction_Flooding_117.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44798.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.35</v>
+        <v>4.347</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.03</v>
+        <v>5.032</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.02</v>
+        <v>10.022</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>8.94</v>
+        <v>8.942</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.483</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>9.15</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.85</v>
+        <v>5.852</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.5</v>
+        <v>2.498</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.4</v>
+        <v>7.398</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.26</v>
+        <v>4.257</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.37</v>
+        <v>3.371</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.74</v>
+        <v>5.736</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.227</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>54.64</v>
+        <v>54.637</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>11.07</v>
+        <v>11.069</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.96</v>
+        <v>2.959</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.91</v>
+        <v>4.913</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.755</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.64</v>
+        <v>5.641</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.517</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.42</v>
+        <v>6.419</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>7.16</v>
+        <v>7.159</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.01</v>
+        <v>2.015</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.4</v>
+        <v>4.399</v>
       </c>
     </row>
     <row r="3">
@@ -759,37 +759,37 @@
         <v>44798.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.68</v>
+        <v>0.681</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.256</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.054</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.06</v>
+        <v>3.062</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.3</v>
+        <v>0.301</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.266</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.15</v>
+        <v>1.153</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.57</v>
+        <v>1.568</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.181</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.541</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.204</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0</v>
@@ -816,46 +816,46 @@
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.12</v>
+        <v>1.121</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>0.16</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.623</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.113</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>2.29</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.083</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.331</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.122</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.159</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.114</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.29</v>
+        <v>3.293</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.266</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44798.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8</v>
+        <v>7.998</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.35</v>
+        <v>6.351</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.454</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.29</v>
+        <v>17.286</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.16</v>
+        <v>14.158</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.59</v>
+        <v>6.586</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>19.84</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.723000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.34</v>
+        <v>4.342</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.12</v>
+        <v>7.123</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.89</v>
+        <v>7.892</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.2</v>
+        <v>7.201</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2</v>
+        <v>2.001</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.24</v>
+        <v>6.243</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.99</v>
+        <v>8.987</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.24</v>
+        <v>5.243</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.058</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.237</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>90.34999999999999</v>
+        <v>90.351</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>17.4</v>
+        <v>17.398</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.76</v>
+        <v>5.756</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>11.57</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.66</v>
+        <v>6.657</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.868</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.52</v>
+        <v>10.522</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.03</v>
+        <v>5.033</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.25</v>
+        <v>5.255</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.22</v>
+        <v>5.218</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.96</v>
+        <v>7.963</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.077</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>17.7</v>
+        <v>17.702</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.45</v>
+        <v>3.455</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.2</v>
+        <v>7.199</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>8.970000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44798.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>21.67</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>30.62</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>113.03</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>21.92</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.23</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.88</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_117.xlsx
+++ b/DATA_goal/Junction_Flooding_117.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,14 +457,14 @@
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
@@ -967,22 +967,22 @@
         <v>44798.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.98</v>
+        <v>9.976000000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.74</v>
+        <v>7.742</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.481</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.59</v>
+        <v>21.592</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.74</v>
+        <v>17.735</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>8.128</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>29.02</v>
@@ -991,79 +991,183 @@
         <v>12.1</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.46</v>
+        <v>5.456</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>8.554</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.4</v>
+        <v>9.395</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>9.026999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.51</v>
+        <v>2.513</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.77</v>
+        <v>7.775</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.24</v>
+        <v>11.237</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.51</v>
+        <v>6.511</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>113.11</v>
+        <v>113.107</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.85</v>
+        <v>21.854</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.17</v>
+        <v>7.171</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.7</v>
+        <v>14.699</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>8.111000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.05</v>
+        <v>1.053</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>14.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.29</v>
+        <v>6.288</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.16</v>
+        <v>6.155</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.51</v>
+        <v>6.513</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>9.605</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>26.422</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>4.244</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>8.973000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44798.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>26.42</v>
-      </c>
-      <c r="AG5" s="4" t="n">
+      <c r="S6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>113.03</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>4.24</v>
       </c>
-      <c r="AH5" s="4" t="n">
-        <v>8.970000000000001</v>
+      <c r="AH6" s="4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_117.xlsx
+++ b/DATA_goal/Junction_Flooding_117.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,14 +457,14 @@
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
@@ -967,22 +967,22 @@
         <v>44798.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.976000000000001</v>
+        <v>9.98</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.742</v>
+        <v>7.74</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.481</v>
+        <v>0.48</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.592</v>
+        <v>21.59</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.735</v>
+        <v>17.74</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.128</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>29.02</v>
@@ -991,183 +991,79 @@
         <v>12.1</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.456</v>
+        <v>5.46</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.554</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.395</v>
+        <v>9.4</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.026999999999999</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.513</v>
+        <v>2.51</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.775</v>
+        <v>7.77</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.237</v>
+        <v>11.24</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.511</v>
+        <v>6.51</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>113.107</v>
+        <v>113.11</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.854</v>
+        <v>21.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.171</v>
+        <v>7.17</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.699</v>
+        <v>14.7</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.111000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.053</v>
+        <v>1.05</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>14.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.288</v>
+        <v>6.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.155</v>
+        <v>6.16</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.513</v>
+        <v>6.51</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.605</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.067</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.422</v>
+        <v>26.42</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.244</v>
+        <v>4.24</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.973000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44798.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>21.67</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>30.62</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>113.03</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>21.92</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.23</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.88</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
   </sheetData>
